--- a/pdfs/failed_ocr_pdfs.xlsx
+++ b/pdfs/failed_ocr_pdfs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,258 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>_cleaned_A two-fold interpenetration pillar-layered metal-organic frameworks based on BODIPY for chemo-photodynamic therapy.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>_cleaned_A versatile and multifunctional metal-organic framework nanocomposite toward chemo-photodynamic therapy.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>_cleaned_An insight into advanced approaches for photosensitizer optimization in endodontics—a critical review.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>_cleaned_Anthraquinone-Based Metal-Organic Frameworks as a Bifunctional Photocatalyst for C-H Activation.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>_cleaned_Antimicrobial photodynamic therapy assessment of three indocyanine green-loaded metal-organic frameworks against Enterococcus faecalis.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>_cleaned_Biomimetic Metal–Organic Framework Nanoparticles for Cooperative Combination of Antiangiogenesis and Photodynamic Therapy for Enhanced Efficacy.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>_cleaned_Boosting the photocatalytic CO2 reduction of metal-organic frameworks by encapsulating carbon dots.pdf</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>_cleaned_Boronic Acid-Decorated Multivariate Photosensitive Metal−Organic Frameworks for Combating Multi-Drug-Resistant Bacteria.pdf</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>_cleaned_Bromine Vapor Induced Continuous p- to n-Type Conversion of a Semiconductive Metal-Organic Framework Cu[Cu(pdt)2].pdf</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>_cleaned_Building a Pyrazole–Benzothiadiazole–Pyrazole Photosensitizer into Metal–Organic Frameworks for Photocatalytic Aerobic Oxidation.pdf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>_cleaned_Building a Pyrazole–Benzothiadiazole–Pyrazole Photosensitizer into Metal–Organic Frameworks for Photocatalytic Aerobic Oxidation.pdf</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>_cleaned_Cancer Cell-Targeted Photosensitizer and Therapeutic Protein Co-Delivery Nanoplatform Based on a Metal-Organic Framework for Enhanced Synergistic Photodynamic and Protein Therapy.pdf</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>_cleaned_Cancer in nonagenarians_ Profile, treatments and outcomes.pdf</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>_cleaned_Cascade Reactions Catalyzed by Planar Metal–Organic Framework Hybrid Architecture for Combined Cancer Therapy.pdf</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>_cleaned_Chemodynamic and Photothermal Combination Therapy Based on Dual-Modified Metal-Organic Framework for Inducing Tumor Ferroptosis_Pyroptosis.pdf</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>_cleaned_Combining Ruthenium(II) Complexes with Metal-Organic Frameworks to Realize Effective Two-Photon Absorption for Singlet Oxygen Generation.pdf</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>_cleaned_Conductivity, doping, and redox chemistry of a microporous dithiolene-based metal-organic framework.pdf</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>_cleaned_Building a Pyrazole–Benzothiadiazole–Pyrazole Photosensitizer into Metal–Organic Frameworks for Photocatalytic Aerobic Oxidation.pdf</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>_cleaned_Cancer Cell-Targeted Photosensitizer and Therapeutic Protein Co-Delivery Nanoplatform Based on a Metal-Organic Framework for Enhanced Synergistic Photodynamic and Protein Therapy.pdf</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>_cleaned_Cancer in nonagenarians_ Profile, treatments and outcomes.pdf</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>_cleaned_Cascade Reactions Catalyzed by Planar Metal–Organic Framework Hybrid Architecture for Combined Cancer Therapy.pdf</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>No valid OCR output</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pdfs/failed_ocr_pdfs.xlsx
+++ b/pdfs/failed_ocr_pdfs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,2562 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>_cleaned_Interface electron transfer of Bi2MoO6_MIL-125 and the visible-light performance for pollutant degradation.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacial Microenvironment Modulation Boosting Electron Transfer between Metal Nanoparticles and MOFs for Enhanced Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacially synthesized Fe-soc-MOF nanoparticles combined with ICG for photothermal_photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>_cleaned_Light intensity sensor based on an azo-infiltrated microstructured optical fiber.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>_cleaned_Magnetic nanoscale metal-organic frameworks for magnetically aided drug delivery and photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-organic framework (MOF) composite materials for photocatalytic CO2reduction under visible light.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-Organic Framework Nanoparticles with Near-Infrared Dye for Multimodal Imaging and Guided Phototherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>_cleaned_Interface electron transfer of Bi2MoO6_MIL-125 and the visible-light performance for pollutant degradation.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacial Microenvironment Modulation Boosting Electron Transfer between Metal Nanoparticles and MOFs for Enhanced Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacially synthesized Fe-soc-MOF nanoparticles combined with ICG for photothermal_photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>_cleaned_Light intensity sensor based on an azo-infiltrated microstructured optical fiber.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>_cleaned_Magnetic nanoscale metal-organic frameworks for magnetically aided drug delivery and photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-organic framework (MOF) composite materials for photocatalytic CO2reduction under visible light.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-Organic Framework Nanoparticles with Near-Infrared Dye for Multimodal Imaging and Guided Phototherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-organic framework nanosheets with flower-like structure as probes for H2S detection and in situ singlet-oxygen production.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-Organic Framework-Based Nanoagents for Effective Tumor Therapy by Dual Dynamics-Amplified Oxidative Stress.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>_cleaned_Interface electron transfer of Bi2MoO6_MIL-125 and the visible-light performance for pollutant degradation.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacial Microenvironment Modulation Boosting Electron Transfer between Metal Nanoparticles and MOFs for Enhanced Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacially synthesized Fe-soc-MOF nanoparticles combined with ICG for photothermal_photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>_cleaned_Light intensity sensor based on an azo-infiltrated microstructured optical fiber.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>_cleaned_Magnetic nanoscale metal-organic frameworks for magnetically aided drug delivery and photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-organic framework (MOF) composite materials for photocatalytic CO2reduction under visible light.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-Organic Framework Nanoparticles with Near-Infrared Dye for Multimodal Imaging and Guided Phototherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-organic framework nanosheets with flower-like structure as probes for H2S detection and in situ singlet-oxygen production.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-Organic Framework-Based Nanoagents for Effective Tumor Therapy by Dual Dynamics-Amplified Oxidative Stress.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>_cleaned_Metallization-Prompted Robust Porphyrin-Based Hydrogen-Bonded Organic Frameworks for Photocatalytic CO2 Reduction.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal–Organic Framework as a Simple and General Inert Nanocarrier for Photosensitizers to Implement Activatable Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>_cleaned_Interface electron transfer of Bi2MoO6_MIL-125 and the visible-light performance for pollutant degradation.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacial Microenvironment Modulation Boosting Electron Transfer between Metal Nanoparticles and MOFs for Enhanced Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacially synthesized Fe-soc-MOF nanoparticles combined with ICG for photothermal_photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>_cleaned_Light intensity sensor based on an azo-infiltrated microstructured optical fiber.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>_cleaned_Interface electron transfer of Bi2MoO6_MIL-125 and the visible-light performance for pollutant degradation.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacial Microenvironment Modulation Boosting Electron Transfer between Metal Nanoparticles and MOFs for Enhanced Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacially synthesized Fe-soc-MOF nanoparticles combined with ICG for photothermal_photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>_cleaned_Light intensity sensor based on an azo-infiltrated microstructured optical fiber.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>_cleaned_Magnetic nanoscale metal-organic frameworks for magnetically aided drug delivery and photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-organic framework (MOF) composite materials for photocatalytic CO2reduction under visible light.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal-Organic Framework Nanoparticles with Near-Infrared Dye for Multimodal Imaging and Guided Phototherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>_cleaned_Hyaluronic Acid Modified Halloysite Nanotubes Decorated with ZIF-8 Nanoparticles as Dual Chemo- and Photothermal Anticancer Agents.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of zirconium-based metal-organic framework with CdS for enhanced photocatalytic conversion of CO2to CO.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>_cleaned_Intense phototoxic reactions to photodynamic therapy in immunosuppressed renal transplant patients.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>_cleaned_Interface electron transfer of Bi2MoO6_MIL-125 and the visible-light performance for pollutant degradation.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacial Microenvironment Modulation Boosting Electron Transfer between Metal Nanoparticles and MOFs for Enhanced Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>_cleaned_Interfacially synthesized Fe-soc-MOF nanoparticles combined with ICG for photothermal_photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>_cleaned_Metal–organic-framework-derived mesoporous carbon nanospheres containing porphyrin-like metal centers for conformal phototherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>_cleaned_Metformin is associated with decreased risk of basal cell carcinoma_ A whole-population case-control study from Iceland.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>_cleaned_Microenvironment Regulation of {Co4IIO4} Cubane for Syngas Photosynthesis.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>_cleaned_Microfluidics-Assisted Surface Trifunctionalization of a Zeolitic Imidazolate Framework Nanocarrier for Targeted and Controllable Multitherapies of Tumors.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>_cleaned_Microneedle-mediated delivery of MIL-100(Fe) as a tumor microenvironment-responsive biodegradable nanoplatform for O2-evolving chemophototherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>_cleaned_MIL-125-NH2@TiO2 Core-Shell Particles Produced by a Post-Solvothermal Route for High-Performance Photocatalytic H2 Production.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Covalent Organic Framework for Combinatorial Antitumor Photodynamic and Photothermal Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal-Organic Framework Confines Zinc-Phthalocyanine Photosensitizers for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale metal-organic framework for highly effective photodynamic therapy of resistant head and neck cancer.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal-Organic Framework Overcomes Hypoxia for Photodynamic Therapy Primed Cancer Immunotherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal-Organic Frameworks and Metal-Organic Layers with Two-Photon-Excited Fluorescence.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale metal-organic frameworks for combined photodynamic &amp; radiation therapy in cancer treatment.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal-Organic Frameworks Stabilize Bacteriochlorins for Type i and Type II Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal-Organic Layers for Biomedical Applications.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal-Organic Layers for Radiotherapy-Radiodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Metal–Organic Layers for Deeply Penetrating X-ray-Induced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Mixed-Component Metal-Organic Frameworks with Photosensitizer Spatial-Arrangement-Dependent Photochemistry for Multimodal-Imaging-Guided Photothermal Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanozyme Decorated Metal-Organic Frameworks for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>_cleaned_One-pot self-assembly and photoreduction synthesis of silver nanoparticle-decorated reduced graphene oxide_MIL-125(Ti) photocatalyst with improved visible light photocatalytic activity.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>_cleaned_One-pot synthesis of a self-reinforcing cascade bioreactor for combined photodynamic_chemodynamic_starvation therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>_cleaned_One-Pot Synthetic Approach toward Porphyrinatozinc and Heavy-Atom Involved Zr-NMOF and Its Application in Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>_cleaned_Persistent Regulation of Tumor Microenvironment via Circulating Catalysis of MnFe2O4@Metal–Organic Frameworks for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>_cleaned_Photoreduction of Shewanella oneidensis Extracellular Cytochromes by Organic Chromophores and Dye-Sensitized TiO2.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>_cleaned_Photosensitized Peroxidase Mimicry at the Hierarchical 0D_2D Heterojunction-Like Quasi Metal-Organic Framework Interface for Boosting Biocatalytic Disinfection.pdf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>_cleaned_Photosensitizing single-site metal−organic framework enabling visible-light-driven CO2 reduction for syngas production.pdf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>_cleaned_Preparation of a Porphyrin Metal-Organic Framework with Desirable Photodynamic Antimicrobial Activity for Sustainable Plant Disease Management.pdf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>_cleaned_Preparation of novel and highly active magnetic ternary structures (metal-organic framework_cobalt ferrite_graphene oxide) for effective visible-light-driven photocatalytic and photo-Fenton-like degradation of organic contaminants.pdf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>_cleaned_Primary prevention of skin dysplasia in renal transplant recipients with photodynamic therapy_ A randomized controlled trial.pdf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>_cleaned_Programmed Release of Dihydroartemisinin for Synergistic Cancer Therapy Using a CaCO3 Mineralized Metal–Organic Framework.pdf</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>_cleaned_Promoted Type i and II ROS Generation by a Covalent Organic Framework through Sonosensitization and PMS Activation.pdf</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>_cleaned_Pronounced local skin reaction to ingenol mebutate against actinic keratosis in kidney transplant recipient without systemic adverse events.pdf</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>_cleaned_Rational construction of Ni(OH)2 nanoparticles on covalent triazine-based framework for artificial CO2 reduction.pdf</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>_cleaned_Rational Design of Crystalline Covalent Organic Frameworks for Efficient CO2 Photoreduction with H2O.pdf</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>_cleaned_Rational Modulation of BODIPY Photosensitizers to Design Metal-Organic Framework-Based NIR Nanocomposites for High-Efficiency Photodynamic Therapy in a Hypoxic Environment.pdf</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>_cleaned_Rational synthesis of interpenetrated 3D covalent organic frameworks for asymmetric photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>_cleaned_Reactive Oxygen Species Synergistic pH_H2O2-Responsive Poly(l -lactic acid)- block-poly(sodium 4-styrenesulfonate)_Citrate-Fe(III)@ZIF-8 Hybrid Nanocomposites for Controlled Drug Release.pdf</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>_cleaned_Real-Time Visualization of Active Species in a Single-Site Metal-Organic Framework Photocatalyst.pdf</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>_cleaned_Recent advances in strategies to modify MIL-125 (Ti) and its environmental applications.pdf</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>_cleaned_Regulating the Electronic Structure and Water Adsorption Capability by Constructing Carbon-Doped CuO Hollow Spheres for Efficient Photocatalytic Hydrogen Evolution.pdf</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>_cleaned_Remodeling extracellular matrix based on functional covalent organic framework to enhance tumor photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>_cleaned_Renal-Clearable Porphyrinic Metal-Organic Framework Nanodots for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>_cleaned_Risk of lip cancer after solid organ transplantation in the United States.pdf</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>_cleaned_Risk of Merkel cell carcinoma after solid organ transplantation.pdf</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>_cleaned_ROS-induced NO generation for gas therapy and sensitizing photodynamic therapy of tumor.pdf</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>_cleaned_Self-Illuminated, Oxygen-Supplemented Photodynamic Therapy via a Multienzyme-Mimicking Nanoconjugate.pdf</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>_cleaned_Single-Site Photocatalytic H2 Evolution from Covalent Organic Frameworks with Molecular Cobaloxime Co-Catalysts.pdf</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>_cleaned_Soft X-Ray Stimulated Lanthanide@MOF Nanoprobe for Amplifying Deep Tissue Synergistic Photodynamic and Antitumor Immunotherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>_cleaned_Solar light photocatalytic degradation of nitrite in aqueous solution over CdS embedded on metal-organic frameworks.pdf</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>_cleaned_Solvent-Assisted Self-Assembly of a Metal-Organic Framework Based Biocatalyst for Cascade Reaction Driven Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>_cleaned_Spectroscopic evidence of energy transfer in bodipy-incorporated nano-porphyrinic metal-organic frameworks.pdf</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>_cleaned_Supramolecular system composed of B12 model complex and organic photosensitizer_ Impact of the corrin framework of B12 on the visible-light-driven dechlorination without the use of noble metals.pdf</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>_cleaned_Switching Excited State Distribution of Metal–Organic Framework for Dramatically Boosting Photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergistic Antibacterial and Anti-Inflammatory Effects of a Drug-Loaded Self-Standing Porphyrin-COF Membrane for Efficient Skin Wound Healing.pdf</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergistic catalysis for light-driven proton reduction using a polyoxometalate-based Cu-Ni heterometallic-organic framework.pdf</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergistic Chemotherapy and Photodynamic Therapy of Endophthalmitis Mediated by Zeolitic Imidazolate Framework-Based Drug Delivery Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergistic interface phenomena between MOFs, NiPx for efficient hydrogen production.pdf</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergistically enhanced multienzyme catalytic nanoconjugates for efficient cancer therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergy of Electron Transfer and Electron Utilization via Metal-Organic Frameworks as an Electron Buffer Tank for Nicotinamide Regeneration.pdf</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis and applications of novel graphitic carbon nitride_metal-organic frameworks mesoporous photocatalyst for dyes removal.pdf</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis and CO2photoreduction of two 3d-4f heterometal-organic frameworks.pdf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis and solar cell application of a Ti (metal)-organic framework_carbon nanotube composite.pdf</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis of a novel 2D zinc(ii) metal-organic framework for photocatalytic degradation of organic dyes in water.pdf</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis of dual-stimuli responsive metal organic framework-coated iridium oxide nanocomposite functionalized with tumor targeting albumin-folate for synergistic photodynamic_photothermal cancer therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis of Metal-Organic Framework Nanosheets with High Relaxation Rate and Singlet Oxygen Yield.pdf</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis of mixed-linker Zr-MOFs for emerging contaminant adsorption and photodegradation under visible light.pdf</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis of Zinc Oxide Nanoparticles Coated with Silicon Oxide.pdf</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>_cleaned_Synthesis, characterization and comparative studies on the photophysical and photochemical properties of metal-free and zinc(II) phthalocyanines with phenyloxyacetic acid functionalities.pdf</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>_cleaned_Tablet-like TiO2_C nanocomposites for repeated type I sonodynamic therapy of pancreatic cancer.pdf</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>_cleaned_Tailored core‒shell dual metal–organic frameworks as a versatile nanomotor for effective synergistic antitumor therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>_cleaned_Tailoring Nanocrystalline Metal-Organic Frameworks as Fluorescent Dye Carriers for Bioimaging.pdf</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>_cleaned_Ternary supramolecular system for photocatalytic oxidation with air by consecutive photo-induced electron transfer processes.pdf</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>_cleaned_The synergetic effect of N, S-codoped carbon and CoO_ X nanodots derived from ZIF-67 as a highly efficient cocatalyst over CdS nanorods.pdf</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>_cleaned_Trapping and Releasing of Oxygen in Liquid by Metal–Organic Framework with Light and Heat.pdf</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>_cleaned_Tumor targeted self-synergistic nanoplatforms for arsenic-sensitized photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>_cleaned_Tumor-activated and metal-organic framework assisted self-assembly of organic photosensitizers.pdf</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>_cleaned_Tumor-Activated Photosensitization and Size Transformation of Nanodrugs.pdf</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>_cleaned_Tumor-targeted biomimetic nanoplatform precisely integrates photodynamic therapy and autophagy inhibition for collaborative treatment of oral cancer†.pdf</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>_cleaned_Tunable Band Gaps in MUV-10(M)_ A Family of Photoredox-Active MOFs with Earth-Abundant Open Metal Sites.pdf</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>_cleaned_Two-dimensional metal-organic-framework as a unique theranostic nano-platform for nuclear imaging and chemo-photodynamic cancer therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>_cleaned_UiO-66 MOFs as electron transport channel to short circuit dye photosensitizer and NiS2 co-catalyst for increased hydrogen generation.pdf</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>_cleaned_Ultra-thin metal-organic framework nanosheets for chemo-photodynamic synergistic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>_cleaned_Ultrasound-Enhanced Self-Exciting Photodynamic Therapy Based on Hypocrellin B.pdf</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>_cleaned_Understanding entrapped molecular photosystem and metal-organic framework synergy for improved solar fuel production.pdf</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>_cleaned_Upconversion Nanoparticle-Induced Multimode Photodynamic Therapy Based on a Metal-Organic Framework_Titanium Dioxide Nanocomposite.pdf</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>_cleaned_Upconversion nanorods anchored metal-organic frameworks via hierarchical and dynamic assembly for synergistic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>_cleaned_Upconverted Metal-Organic Framework Janus Architecture for Near-Infrared and Ultrasound Co-Enhanced High Performance Tumor Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>_cleaned_Varied proton conductivity and photoreduction CO2performance of isostructural heterometallic cluster based metal-organic frameworks.pdf</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>_cleaned_Vesiculobullous eruption in a patient receiving psoralen ultraviolet A (PUVA) treatment for prurigo nodules_ a case of PUVA-aggravated pemphigoid nodularis.pdf</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible light-induced aerobic dioxygenation of α,β-unsaturated amides_alkenes toward selective synthesis of β-oxy alcohols using rose bengal as a photosensitizer.pdf</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light harvesting pyrene-based MOFs as efficient ROS generators.pdf</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-Light Photocatalytic CO2 Reduction Using Metal-Organic Framework Derived Ni(OH)2 Nanocages_ A Synergy from Multiple Light Reflection, Static Charge Transfer, and Oxygen Vacancies.pdf</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light reduction CO2 with dodecahedral zeolitic imidazolate framework ZIF-67 as an efficient co-catalyst.pdf</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-Light-Driven C-N Bond Formation by a Hexanickel Cluster Substituted Polyoxometalate-Based Photocatalyst.pdf</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale Mixed-Component Metal-Organic Frameworks with Photosensitizer Spatial-Arrangement-Dependent Photochemistry for Multimodal-Imaging-Guided Photothermal Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanozyme Decorated Metal-Organic Frameworks for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>_cleaned_One-pot self-assembly and photoreduction synthesis of silver nanoparticle-decorated reduced graphene oxide_MIL-125(Ti) photocatalyst with improved visible light photocatalytic activity.pdf</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>_cleaned_One-pot synthesis of a self-reinforcing cascade bioreactor for combined photodynamic_chemodynamic_starvation therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>_cleaned_One-Pot Synthetic Approach toward Porphyrinatozinc and Heavy-Atom Involved Zr-NMOF and Its Application in Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>_cleaned_Persistent Regulation of Tumor Microenvironment via Circulating Catalysis of MnFe2O4@Metal–Organic Frameworks for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>_cleaned_Photoreduction of Shewanella oneidensis Extracellular Cytochromes by Organic Chromophores and Dye-Sensitized TiO2.pdf</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>_cleaned_Photosensitized Peroxidase Mimicry at the Hierarchical 0D_2D Heterojunction-Like Quasi Metal-Organic Framework Interface for Boosting Biocatalytic Disinfection.pdf</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>_cleaned_Promoted Type i and II ROS Generation by a Covalent Organic Framework through Sonosensitization and PMS Activation.pdf</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>_cleaned_Rational Modulation of BODIPY Photosensitizers to Design Metal-Organic Framework-Based NIR Nanocomposites for High-Efficiency Photodynamic Therapy in a Hypoxic Environment.pdf</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>_cleaned_Rational synthesis of interpenetrated 3D covalent organic frameworks for asymmetric photocatalysis.pdf</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>_cleaned_Reactive Oxygen Species Synergistic pH_H2O2-Responsive Poly(l -lactic acid)- block-poly(sodium 4-styrenesulfonate)_Citrate-Fe(III)@ZIF-8 Hybrid Nanocomposites for Controlled Drug Release.pdf</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>_cleaned_Real-Time Visualization of Active Species in a Single-Site Metal-Organic Framework Photocatalyst.pdf</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>_cleaned_Renal-Clearable Porphyrinic Metal-Organic Framework Nanodots for Enhanced Photodynamic Therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>_cleaned_Single-Site Photocatalytic H2 Evolution from Covalent Organic Frameworks with Molecular Cobaloxime Co-Catalysts.pdf</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>_cleaned_Synergistic Chemotherapy and Photodynamic Therapy of Endophthalmitis Mediated by Zeolitic Imidazolate Framework-Based Drug Delivery Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>_cleaned_One-pot self-assembly and photoreduction synthesis of silver nanoparticle-decorated reduced graphene oxide_MIL-125(Ti) photocatalyst with improved visible light photocatalytic activity.pdf</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>_cleaned_Tumor-activated and metal-organic framework assisted self-assembly of organic photosensitizers.pdf</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light reduction CO2 with dodecahedral zeolitic imidazolate framework ZIF-67 as an efficient co-catalyst.pdf</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-Light-Driven C-N Bond Formation by a Hexanickel Cluster Substituted Polyoxometalate-Based Photocatalyst.pdf</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-Light-Driven Photocatalytic Oxidation of Organic Chlorides Using Air and an Inorganic-Ligand Supported Nickel-Catalyst Without Photosensitizers.pdf</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light-driven rotation of molecular motors in a dual-function metal-organic framework enabled by energy transfer.pdf</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light-induced controlled radical polymerization of methacrylates mediated by a pillared-layer metal-organic framework.pdf</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light-mediated guest trapping in a photosensitizing porous coordination network_ Metal-free C-C bond-forming modification of metal-organic frameworks for aqueous-phase herbicide adsorption.pdf</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>_cleaned_Visible-light-responsive polyoxometalate-based metal–organic framework for highly efficient photocatalytic oxidative coupling of amines.pdf</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>_cleaned_Water Photo-Electrooxidation Using Mats of TiO2 Nanorods, Surface Sensitized by a Metal–Organic Framework of Nickel and 1,2-Benzene Dicarboxylic Acid.pdf</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>_cleaned_Water-Soluble Three-Dimensional Polymers_ Non-Covalent and Covalent Synthesis and Functions†.pdf</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>_cleaned_Well-distributed Pt-nanoparticles within confined coordination interspaces of self-sensitized porphyrin metal-organic frameworks_ Synergistic effect boosting highly efficient photocatalytic hydrogen evolution reaction.pdf</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>_cleaned_Zeolitic Imidazolate Framework Platform for Combinational Starvation Therapy and Oxygen Self-Sufficient Photodynamic Therapy against a Hypoxia Tumor.pdf</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>_cleaned_Zeolitic imidazolate metal organic framework-8 as an efficient pH-controlled delivery vehicle for zinc phthalocyanine in photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>_cleaned_Zr-MOFs Integrated with a Guest Capturer and a Photosensitizer for the Simultaneous Adsorption and Degradation of 4-Chlorophenol.pdf</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>_cleaned_ZrMOF nanoparticles as quenchers to conjugate DNA aptamers for target-induced bioimaging and photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>_cleaned_χ-Extended Benzoporphyrin-Based Metal-Organic Framework for Inhibition of Tumor Metastasis.pdf</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>_cleaned_Zeolitic Imidazolate Framework Platform for Combinational Starvation Therapy and Oxygen Self-Sufficient Photodynamic Therapy against a Hypoxia Tumor.pdf</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>_cleaned_Zeolitic imidazolate metal organic framework-8 as an efficient pH-controlled delivery vehicle for zinc phthalocyanine in photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>_cleaned_Zeolitic Imidazolate Framework Platform for Combinational Starvation Therapy and Oxygen Self-Sufficient Photodynamic Therapy against a Hypoxia Tumor.pdf</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>_cleaned_Zeolitic imidazolate metal organic framework-8 as an efficient pH-controlled delivery vehicle for zinc phthalocyanine in photodynamic therapy.pdf</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>_cleaned_2D Zn-Porphyrin-Based Co(II)-MOF with 2-Methylimidazole Sitting Axially on the Paddle–Wheel Units_ An Efficient Electrochemiluminescence Bioassay for SARS-CoV-2.pdf</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>_cleaned_A cyclic nano-reactor achieving enhanced photodynamic tumor therapy by reversing multiple resistances.pdf</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>_cleaned_Bibliometric and visualized analysis of metal-organic frameworks in biomedical application.pdf</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>_cleaned_Fast fabrication of “all-in-one” injectable hydrogels as antibiotic alternatives for enhanced bacterial inhibition and accelerating wound healing.pdf</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>_cleaned_Fluorescent Imaging-Guided Chemo-and Photodynamic Therapy of Hepatocellular Carcinoma with HCPT@NMOFs-RGD Nanocomposites.pdf</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>_cleaned_Folic acid-nanoscale gadolinium-porphyrin metal-organic frameworks_ Fluorescence and magnetic resonance dual-modality imaging and photodynamic therapy in hepatocellular carcinoma.pdf</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>_cleaned_Imparting multi-functionality to covalent organic framework nanoparticles by the dual-ligand assistant encapsulation strategy.pdf</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>_cleaned_Integration of a (–Cu–S–) n plane in a metal–organic framework affords high electrical conductivity.pdf</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>_cleaned_Fast fabrication of “all-in-one” injectable hydrogels as antibiotic alternatives for enhanced bacterial inhibition and accelerating wound healing.pdf</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale metal-organic frameworks for cancer immunotherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanozyme Decorated Metal-Organic Framework Nanosheet for Enhanced Photodynamic Therapy Against Hypoxic Tumor.pdf</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>_cleaned_Serum Metabolomics Analysis of Skin-Involved Systemic Lupus Erythematosus_ Association of Anti-SSA Antibodies with Photosensitivity.pdf</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>_cleaned_Silk fibroin–gelatin photo-crosslinked 3D-bioprinted hydrogel with MOF-methylene blue nanoparticles for infected wound healing.pdf</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>_cleaned_Nanoscale metal-organic frameworks for cancer immunotherapy.pdf</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>No valid OCR output</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
